--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711410.3637095533</v>
+        <v>643103.9392868346</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554233</v>
+        <v>335414.3901624706</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8222662.983689154</v>
+        <v>8243252.136356125</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>17.7467412306384</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>66.46948864201228</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>29.79900896488251</v>
+        <v>26.86529824462891</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>227.7664834517758</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E8" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.064323916956789</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>111.1907825699907</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.41402108404368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.39108932485919</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>296.7650756691936</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250708</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>86.88462298447435</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>295.2670536460018</v>
+        <v>221.0021786982957</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231954</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541057</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>257.2442564385917</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>141.8163877220766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.445065564638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.36452066793935</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>206.1608002224374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>40.4094112662217</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>223.8052813017754</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>10.46499054460254</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>54.47872210664364</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>381.6269365471937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>155.7501928656666</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>46.36452066793935</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>172.0605432780341</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>269.513456948084</v>
+        <v>327.9428964074127</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.6392697836404</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>279.4316181576253</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>26.64360395382558</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>26.26583888007722</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>253.0077412860072</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>373.807465048114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>219.5513188906176</v>
       </c>
       <c r="E38" t="n">
-        <v>202.7645714077705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>67.41850321461142</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>292.1380595743621</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>254.4950516443635</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>68.0839084968752</v>
       </c>
       <c r="T46" t="n">
-        <v>189.5968436493441</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>671.5442802711217</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>671.5442802711217</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>671.5442802711217</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>671.5442802711217</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>671.5442802711217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>194.0180478700184</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.23786849471571</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>251.8996143319767</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>494.0167193695077</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>777.8451838605731</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>777.8451838605731</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>777.8451838605731</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>777.8451838605731</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>569.9936836550403</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.2333848900864</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="C8" t="n">
-        <v>499.3853800778592</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9366034337592</v>
+        <v>291.098892013627</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>291.098892013627</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>787.0670914110435</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>590.5599471655395</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
-        <v>416.1069178844125</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>416.1069178844125</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>256.869462878957</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>786.7729354759944</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>1047.185999568486</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>960.9618788268415</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>758.7752841856075</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U9" t="n">
-        <v>758.7752841856075</v>
+        <v>622.7627494639471</v>
       </c>
       <c r="V9" t="n">
-        <v>758.7752841856075</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="W9" t="n">
-        <v>758.7752841856075</v>
+        <v>133.3732845040028</v>
       </c>
       <c r="X9" t="n">
-        <v>758.7752841856075</v>
+        <v>133.3732845040028</v>
       </c>
       <c r="Y9" t="n">
-        <v>758.7752841856075</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>167.9493102140437</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>534.603677789272</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C11" t="n">
-        <v>534.603677789272</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E11" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036443</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018221</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.546461473039</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859355</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982748</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.1098286224631</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="12">
@@ -5099,31 +5099,31 @@
         <v>988.4979752170821</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747038</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692483</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423994</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673413</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036443</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641983</v>
+        <v>266.2060027641982</v>
       </c>
       <c r="L12" t="n">
         <v>670.82192085987</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>350.9495687306105</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="C13" t="n">
-        <v>350.9495687306105</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="D13" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036443</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036443</v>
@@ -5202,10 +5202,10 @@
         <v>53.94298182036443</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.7169011658208</v>
@@ -5232,19 +5232,19 @@
         <v>728.1289842064341</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064341</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064341</v>
+        <v>438.955373861002</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694735</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="X13" t="n">
-        <v>350.9495687306105</v>
+        <v>149.5382038240414</v>
       </c>
       <c r="Y13" t="n">
-        <v>350.9495687306105</v>
+        <v>149.5382038240414</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1249.712458167645</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C14" t="n">
-        <v>1249.712458167645</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D14" t="n">
-        <v>891.4467595608946</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="E14" t="n">
-        <v>505.6585069626504</v>
+        <v>1106.127218649458</v>
       </c>
       <c r="F14" t="n">
-        <v>505.6585069626504</v>
+        <v>695.14131385985</v>
       </c>
       <c r="G14" t="n">
-        <v>505.6585069626504</v>
+        <v>277.1775057580369</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.086203674651</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.317548404537</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X14" t="n">
-        <v>1639.851790143457</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y14" t="n">
-        <v>1249.712458167645</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692483</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5354,55 +5354,55 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598705</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245967</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931985</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036443</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036443</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.425425970681</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C17" t="n">
-        <v>951.4629090302697</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="D17" t="n">
-        <v>593.1972104235191</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="E17" t="n">
-        <v>207.4089578252749</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252749</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332392</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2189.908715988821</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>1837.140060718707</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X17" t="n">
-        <v>1463.674302457627</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y17" t="n">
-        <v>1320.425425970681</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>519.8857516585174</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C19" t="n">
-        <v>350.9495687306105</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.128984206434</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="T19" t="n">
-        <v>728.128984206434</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="U19" t="n">
-        <v>728.128984206434</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="V19" t="n">
-        <v>728.128984206434</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="W19" t="n">
-        <v>728.128984206434</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X19" t="n">
-        <v>728.128984206434</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y19" t="n">
-        <v>519.8857516585174</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.689018870909</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C20" t="n">
-        <v>1202.726501930497</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="D20" t="n">
-        <v>844.4608033237464</v>
+        <v>1077.176257854293</v>
       </c>
       <c r="E20" t="n">
-        <v>844.4608033237464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>433.4748985341388</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>433.4748985341388</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548715</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2311.057514205144</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W20" t="n">
-        <v>1958.28885893503</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X20" t="n">
-        <v>1958.28885893503</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y20" t="n">
-        <v>1958.28885893503</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598705</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.59950625323012</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C22" t="n">
-        <v>99.59950625323012</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D22" t="n">
-        <v>99.59950625323012</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E22" t="n">
-        <v>99.59950625323012</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="F22" t="n">
-        <v>99.59950625323012</v>
+        <v>64.513679340165</v>
       </c>
       <c r="G22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>281.2479710834698</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U22" t="n">
-        <v>281.2479710834698</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V22" t="n">
-        <v>281.2479710834698</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W22" t="n">
-        <v>281.2479710834698</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X22" t="n">
-        <v>281.2479710834698</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y22" t="n">
-        <v>281.2479710834698</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>439.4247359084389</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036444</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785536</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889461</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6244,28 +6244,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
         <v>2323.683332757143</v>
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247703</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.952954307291</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D29" t="n">
-        <v>1122.952954307291</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E29" t="n">
-        <v>737.1647017090468</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="F29" t="n">
-        <v>326.1787969194392</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6560,7 +6560,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.1711973675267</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C32" t="n">
-        <v>412.2086804271149</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6700,19 +6700,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2615.207670282225</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2284.144782938654</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1931.37612766854</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>1557.91036940746</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.771037431648</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6800,28 +6800,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1924.457674141023</v>
+        <v>1834.613306652565</v>
       </c>
       <c r="C35" t="n">
-        <v>1555.495157200611</v>
+        <v>1465.650789712153</v>
       </c>
       <c r="D35" t="n">
-        <v>1555.495157200611</v>
+        <v>1465.650789712153</v>
       </c>
       <c r="E35" t="n">
-        <v>1169.706904602367</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>758.7209998127596</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
         <v>381.1377017843616</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W35" t="n">
-        <v>2311.057514205145</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X35" t="n">
-        <v>2311.057514205145</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y35" t="n">
-        <v>2311.057514205145</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="36">
@@ -7031,28 +7031,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1108.378893121371</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="C38" t="n">
-        <v>739.4163761809593</v>
+        <v>1490.449956290451</v>
       </c>
       <c r="D38" t="n">
-        <v>739.4163761809593</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W38" t="n">
-        <v>1871.983983358263</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X38" t="n">
-        <v>1498.518225097183</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y38" t="n">
-        <v>1108.378893121371</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="39">
@@ -7265,10 +7265,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7487,7 +7487,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>660.0294860098572</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>370.8558756644252</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>370.8558756644252</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1525.74665604171</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1525.74665604171</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>1525.74665604171</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.958403443465</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>728.9724986538579</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>311.0086905520448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7651,16 +7651,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>659.3573594621158</v>
       </c>
       <c r="T46" t="n">
-        <v>536.6170209242687</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="U46" t="n">
-        <v>536.6170209242687</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V46" t="n">
-        <v>281.9325327183818</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>137.245041851987</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>384.6945110063437</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915346</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719073</v>
+        <v>145.0294169142004</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599053</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22634,13 +22634,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>182.4179874641832</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>282.7714800754007</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>170.3657197299391</v>
+        <v>173.2675787520899</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>149.2371023278295</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>154.9673582117048</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E8" t="n">
-        <v>147.6414643519508</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>168.618847186881</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>94.49191320731364</v>
       </c>
     </row>
     <row r="10">
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>237.7236222397843</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.3427523386214</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>72.96602500927543</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.115552095143357e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541068</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>138.8250324045628</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>28.65571911835536</v>
+        <v>102.9205940660614</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23554,10 +23554,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787206</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>149.6317893031198</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.421550933977</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>165.7810182820795</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.42385312965737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>341.5209588060401</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>100.1174914625818</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>156.8448117144484</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>170.5563833514406</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>25.24910919451776</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>172.0020656044683</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24414,19 +24414,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>165.7810182820795</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>151.8622294863231</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24651,19 +24651,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>123.0794055939013</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>144.270713072711</v>
+        <v>85.84127361338227</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,22 +24733,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24894,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>157.4983735401876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>102.4987519146365</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24970,10 +24970,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>224.5805635544637</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>260.2571594565138</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>128.9226287862546</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>39.97670497268103</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>121.3492865632956</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>135.1317227300653</v>
       </c>
       <c r="E38" t="n">
-        <v>179.1657986644913</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25602,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>157.6166022434729</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>89.79231049789968</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>69.42772111999369</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>144.0616304531437</v>
       </c>
       <c r="T46" t="n">
-        <v>35.43826180874018</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465428.5179229464</v>
+        <v>468509.5306848606</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465428.5179229465</v>
+        <v>484493.4921751526</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476628</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476633</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26337,7 +26337,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26346,10 +26346,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429959</v>
+        <v>407720.4376835742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25282.26821261927</v>
+        <v>25293.26066533936</v>
       </c>
       <c r="D4" t="n">
-        <v>25282.26821261927</v>
+        <v>25338.71079138016</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
         <v>27086.83710496504</v>
@@ -26441,7 +26441,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="J4" t="n">
-        <v>27086.83710496505</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="K4" t="n">
         <v>27086.83710496504</v>
@@ -26472,19 +26472,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340945</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26493,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.3968562962</v>
+        <v>-25314.40747633658</v>
       </c>
       <c r="C6" t="n">
-        <v>67673.03467525158</v>
+        <v>51699.94129532461</v>
       </c>
       <c r="D6" t="n">
-        <v>67673.03467525158</v>
+        <v>37641.98612414195</v>
       </c>
       <c r="E6" t="n">
-        <v>-263384.7706979765</v>
+        <v>-244327.4480843741</v>
       </c>
       <c r="F6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="G6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="H6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="I6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="J6" t="n">
-        <v>106401.4607459132</v>
+        <v>100333.0470000939</v>
       </c>
       <c r="K6" t="n">
-        <v>169461.4033450194</v>
+        <v>162479.7337967431</v>
       </c>
       <c r="L6" t="n">
-        <v>169461.4033450194</v>
+        <v>158665.4264803528</v>
       </c>
       <c r="M6" t="n">
-        <v>61488.04267096131</v>
+        <v>60958.87190856504</v>
       </c>
       <c r="N6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992001</v>
       </c>
       <c r="O6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26792,31 +26792,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545554</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>354.7302815302971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768963</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768963</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768963</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338303</v>
@@ -31779,19 +31779,19 @@
         <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H12" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890688</v>
@@ -31846,13 +31846,13 @@
         <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923046</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034979</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644439</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
         <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32484,7 +32484,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
         <v>255.8615389119865</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.6796463695195167</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>5.840541654727375</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530451</v>
@@ -35430,7 +35430,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624584</v>
+        <v>138.3897561047515</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262937</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35579,13 +35579,13 @@
         <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643103.9392868346</v>
+        <v>703811.9251730635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624706</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8243252.136356125</v>
+        <v>8222662.983689152</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>66.46948864201228</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26.86529824462891</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>154.1609607394975</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.7664834517758</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>111.1907825699907</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>14.41402108404368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>296.7650756691936</v>
+        <v>355.5613318636997</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250708</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>221.0021786982957</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>257.2442564385917</v>
+        <v>307.2984374366812</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1900,16 +1900,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>46.36452066793935</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>55.66811582074952</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>126.4515542885779</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>40.4094112662217</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.46499054460254</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.279329433658</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>145.4508280966903</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>155.7501928656666</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.36452066793935</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>147.6106839673235</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>172.0605432780341</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>327.9428964074127</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>190.7580231423388</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>47.14167849255889</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>106.0262579901314</v>
       </c>
       <c r="E32" t="n">
-        <v>279.4316181576253</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>26.26583888007722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>253.0077412860072</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>48.43260517378838</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>16.91544265059201</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>219.5513188906176</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>123.2558368419819</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>129.0326605836837</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>333.1156582974058</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480831</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.055538822593</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>220.0749822528492</v>
       </c>
       <c r="E44" t="n">
-        <v>292.1380595743621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>68.0839084968752</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4372,10 +4372,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.6311445709973</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>513.6311445709973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>827.8051051802445</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>827.8051051802445</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>827.8051051802445</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>827.8051051802445</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>760.6642075620503</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.6311445709973</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.0180478700184</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>20.23786849471571</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>251.8996143319767</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>494.0167193695077</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>736.1338244070387</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>978.2509294445696</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>804.9818487541377</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>777.8451838605731</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>777.8451838605731</v>
+        <v>606.1524187082936</v>
       </c>
       <c r="V6" t="n">
-        <v>777.8451838605731</v>
+        <v>606.1524187082936</v>
       </c>
       <c r="W6" t="n">
-        <v>777.8451838605731</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="X6" t="n">
-        <v>569.9936836550403</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.2333848900864</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>556.9999364092498</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>556.9999364092498</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>291.098892013627</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>291.098892013627</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>291.098892013627</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800419</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806666</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806666</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806666</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806666</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110435</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>24.9501803568321</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>265.5537082516946</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>526.1633218638444</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>786.7729354759944</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>1047.185999568486</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>850.9830782217423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>622.7627494639471</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>387.6106412322044</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>133.3732845040028</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>133.3732845040028</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.9493102140437</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C11" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990284</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628376</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284805</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014691</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X11" t="n">
-        <v>1241.158393318536</v>
+        <v>1422.958510780817</v>
       </c>
       <c r="Y11" t="n">
-        <v>1241.158393318536</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692483</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673413</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641982</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.82192085987</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.5382038240414</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>149.5382038240414</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D13" t="n">
-        <v>149.5382038240414</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E13" t="n">
-        <v>149.5382038240414</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>438.955373861002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>438.955373861002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240414</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>149.5382038240414</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.5382038240414</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.127218649458</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>695.14131385985</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>277.1775057580369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548715</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548715</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287635</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5381,25 +5381,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
         <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1254.177966138804</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="C17" t="n">
-        <v>885.2154491983927</v>
+        <v>876.077118489279</v>
       </c>
       <c r="D17" t="n">
-        <v>885.2154491983927</v>
+        <v>517.8114198825285</v>
       </c>
       <c r="E17" t="n">
-        <v>885.2154491983927</v>
+        <v>517.8114198825285</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
         <v>207.4089578252748</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W17" t="n">
-        <v>1640.777806202926</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X17" t="n">
-        <v>1640.777806202926</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y17" t="n">
-        <v>1640.777806202926</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>391.878965009939</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>391.878965009939</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>391.878965009939</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.878965009939</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1435.441956461044</v>
+        <v>1877.070485994672</v>
       </c>
       <c r="C20" t="n">
-        <v>1435.441956461044</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D20" t="n">
-        <v>1077.176257854293</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W20" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X20" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y20" t="n">
-        <v>1822.041796525165</v>
+        <v>1877.070485994672</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5852,10 +5852,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.4036268380754</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C22" t="n">
-        <v>211.4036268380754</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D22" t="n">
-        <v>211.4036268380754</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E22" t="n">
-        <v>211.4036268380754</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>64.513679340165</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>211.4036268380754</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.4036268380754</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>882.8926947117852</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C23" t="n">
-        <v>882.8926947117852</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>200.8630102008597</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2012.400522021833</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W23" t="n">
-        <v>1659.631866751719</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X23" t="n">
-        <v>1659.631866751719</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y23" t="n">
-        <v>1269.492534775907</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6080,31 +6080,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.878965009939</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
         <v>222.942782082032</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>681.2961350468995</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W25" t="n">
-        <v>391.878965009939</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X25" t="n">
-        <v>391.878965009939</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y25" t="n">
-        <v>391.878965009939</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6232,13 +6232,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6259,19 +6259,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C28" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>638.1631929376285</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y28" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1112.426648284105</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C29" t="n">
-        <v>743.4641313436935</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D29" t="n">
-        <v>385.1984327369429</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E29" t="n">
-        <v>385.1984327369429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>385.1984327369429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X29" t="n">
-        <v>1112.426648284105</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y29" t="n">
-        <v>1112.426648284105</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6560,7 +6560,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761945</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761945</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D31" t="n">
-        <v>396.3638799638587</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
-        <v>248.4507863814656</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F31" t="n">
-        <v>101.5608388835552</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1112.426648284105</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C32" t="n">
-        <v>1112.426648284105</v>
+        <v>1375.778177603092</v>
       </c>
       <c r="D32" t="n">
-        <v>754.1609496773547</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X32" t="n">
-        <v>1112.426648284105</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y32" t="n">
-        <v>1112.426648284105</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>519.9493689922781</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C34" t="n">
-        <v>519.9493689922781</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6897,13 +6897,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>701.5978338225178</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>701.5978338225178</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>701.5978338225178</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1834.613306652565</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C35" t="n">
-        <v>1465.650789712153</v>
+        <v>846.9187564332262</v>
       </c>
       <c r="D35" t="n">
-        <v>1465.650789712153</v>
+        <v>488.6530578264757</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>102.8648052282315</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>102.8648052282315</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>102.8648052282315</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6967,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.752638628377</v>
+        <v>1992.620445413571</v>
       </c>
       <c r="Y35" t="n">
-        <v>1834.613306652565</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>520.9088977430002</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C37" t="n">
-        <v>351.9727148150933</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D37" t="n">
-        <v>201.8560754027576</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>71.02928752803314</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>702.55736257324</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>702.55736257324</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y37" t="n">
-        <v>702.55736257324</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1859.412473230863</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C38" t="n">
-        <v>1490.449956290451</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W38" t="n">
-        <v>1859.412473230863</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X38" t="n">
-        <v>1859.412473230863</v>
+        <v>1873.842488573868</v>
       </c>
       <c r="Y38" t="n">
-        <v>1859.412473230863</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.5382038240415</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C40" t="n">
-        <v>149.5382038240415</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D40" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240415</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240415</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240415</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.95295430729</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.95295430729</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090459</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194383</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036444</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548715</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287635</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036444</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036444</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1490.978909181594</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>1490.978909181594</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1490.978909181594</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7739,7 +7739,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>204.0596212327002</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>209.3066720681752</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>209.3066720681752</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>659.3573594621158</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.0596212327002</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.245041851987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063437</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4654202195568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>130.3625277915346</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142004</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,7 +10679,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11387,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>36.26901108812089</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>282.7714800754007</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>173.2675787520899</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>71.78042134147728</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>149.2371023278295</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.9673582117048</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.49191320731364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>237.7236222397843</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>72.96602500927543</v>
+        <v>14.16976881476933</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.115552095143357e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.67053247541068</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>102.9205940660614</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23551,7 +23551,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>149.6317893031198</v>
+        <v>99.57760830503025</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>165.7810182820795</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>162.9165375313453</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>238.8213374824297</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>341.5209588060401</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8448117144484</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>17.43032595537917</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>261.4252176450211</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>172.0020656044683</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>165.7810182820795</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,7 +24423,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>183.9473495801921</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>217.6622078036841</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,10 +24460,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>151.8622294863231</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16.63754732114117</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>123.0794055939013</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24660,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>85.84127361338227</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>195.4799155137148</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.168123766492</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>3.866209516361153</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>248.6567836305516</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4987519146365</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>111.5787052778784</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,16 +25089,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>260.2571594565138</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>128.9226287862546</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>275.4901675905688</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>150.3943596084589</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>121.3492865632956</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>135.1317227300653</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>262.9821018140717</v>
       </c>
     </row>
     <row r="39">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>19.58281243452871</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>21.56738332327717</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727119</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25836,19 +25836,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>59.09000012742595</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>134.6080593678337</v>
       </c>
       <c r="E44" t="n">
-        <v>89.79231049789968</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>13.49974891371824</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>144.0616304531437</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468509.5306848606</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751526</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.1451476628</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476628</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476633</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26337,7 +26337,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26346,13 +26346,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="N2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="O2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245779.7185133938</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847362</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25293.26066533936</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="G4" t="n">
         <v>27086.83710496504</v>
@@ -26472,13 +26472,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25314.40747633658</v>
+        <v>-14318.19791830016</v>
       </c>
       <c r="C6" t="n">
-        <v>51699.94129532461</v>
+        <v>66451.23361324756</v>
       </c>
       <c r="D6" t="n">
-        <v>37641.98612414195</v>
+        <v>66451.23361324753</v>
       </c>
       <c r="E6" t="n">
-        <v>-244327.4480843741</v>
+        <v>-263991.6120725586</v>
       </c>
       <c r="F6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="G6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="H6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="I6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="J6" t="n">
-        <v>100333.0470000939</v>
+        <v>105794.6193713312</v>
       </c>
       <c r="K6" t="n">
-        <v>162479.7337967431</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="L6" t="n">
-        <v>158665.4264803528</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="M6" t="n">
-        <v>60958.87190856504</v>
+        <v>60881.20129637934</v>
       </c>
       <c r="N6" t="n">
-        <v>163392.9895992001</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="O6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="P6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26792,16 +26792,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302971</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31773,25 +31773,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34786,7 +34786,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6796463695195167</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>5.840541654727375</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047515</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35737,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>130.3926104730626</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38107,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
